--- a/data/trans_bre/P25_8-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_8-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>-5,84</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>44,55%</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,99%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-26,32%</t>
+          <t>65,4%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>36,1%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-16,79%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-26,27%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19,33%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 9,18</t>
+          <t>-9,78; 9,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 13,97</t>
+          <t>-0,18; 17,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 17,12</t>
+          <t>-2,56; 18,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 6,15</t>
+          <t>-16,0; 6,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,08; 58,51</t>
+          <t>-17,02; 4,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 138,14</t>
+          <t>-7,39; 15,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 116,04</t>
+          <t>-38,87; 60,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-58,21; 40,14</t>
+          <t>-2,69; 190,44</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-10,08; 138,44</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-47,62; 34,73</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-60,03; 29,42</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-26,08; 91,28</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,05</t>
+          <t>13,75</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,88</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>75,85%</t>
+          <t>10,89</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>10,41</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,23%</t>
+          <t>80,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>65,51%</t>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>39,22%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>27,56%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>65,6%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>42,27%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,89; 22,1</t>
+          <t>4,32; 22,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 7,57</t>
+          <t>-7,52; 7,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 15,89</t>
+          <t>-1,23; 16,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 20,71</t>
+          <t>-5,63; 17,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,62; 173,24</t>
+          <t>1,29; 21,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 64,13</t>
+          <t>-2,15; 21,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 100,97</t>
+          <t>18,6; 177,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 192,82</t>
+          <t>-34,86; 57,27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 104,6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-20,87; 109,74</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5,28; 184,4</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-6,8; 119,51</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,04%</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>-8,62%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>13,06%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>35,3%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14,31%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14,21%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 8,43</t>
+          <t>-6,67; 7,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 4,22</t>
+          <t>-8,77; 4,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 8,36</t>
+          <t>-5,7; 8,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 10,79</t>
+          <t>-0,74; 14,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,55; 67,69</t>
+          <t>-4,74; 10,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-40,4; 28,15</t>
+          <t>-5,95; 10,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,86; 53,05</t>
+          <t>-32,01; 55,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 71,83</t>
+          <t>-39,11; 30,21</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-24,47; 58,28</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; 89,88</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-19,95; 61,19</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-21,11; 59,52</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>9,15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>2,4</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>16,92%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,62%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>41,69%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>55,43%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30,52%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12,97%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16,84%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 10,03</t>
+          <t>-3,18; 10,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 11,27</t>
+          <t>0,31; 12,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 15,29</t>
+          <t>2,82; 14,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 9,8</t>
+          <t>-0,92; 13,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 62,43</t>
+          <t>-5,57; 10,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 87,93</t>
+          <t>-4,63; 11,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,37; 119,61</t>
+          <t>-14,05; 68,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 71,79</t>
+          <t>-0,21; 97,56</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13,21; 113,41</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-4,62; 80,83</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-24,18; 74,39</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-18,74; 68,66</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,22</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,71</t>
+          <t>10,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,67</t>
+          <t>13,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>80,01%</t>
+          <t>12,68</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>86,03%</t>
+          <t>12,55</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>83,01%</t>
+          <t>85,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>85,73%</t>
+          <t>93,57%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>82,52%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>128,2%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>85,79%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>76,79%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 16,96</t>
+          <t>1,59; 17,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 12,31</t>
+          <t>2,44; 13,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 17,2</t>
+          <t>2,73; 17,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 20,18</t>
+          <t>4,43; 20,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 198,5</t>
+          <t>3,96; 20,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,28; 196,26</t>
+          <t>4,04; 20,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,95; 189,74</t>
+          <t>0,65; 234,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,23; 184,71</t>
+          <t>19,38; 219,62</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12,75; 195,74</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>21,37; 284,07</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>19,64; 196,47</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16,97; 162,88</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,64</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>8,8</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>4,88</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>57,0%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>78,69%</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>80,21%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>48,73%</t>
+          <t>71,3%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>63,02%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>65,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>48,63%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>53,89%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 13,16</t>
+          <t>-2,28; 12,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 13,08</t>
+          <t>-2,42; 12,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,72; 24,87</t>
+          <t>-0,62; 17,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 13,1</t>
+          <t>-1,05; 17,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 171,36</t>
+          <t>-3,21; 13,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 267,2</t>
+          <t>-0,53; 18,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 253,41</t>
+          <t>-15,93; 148,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 187,08</t>
+          <t>-21,81; 237,53</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-10,86; 186,95</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 186,51</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-25,39; 187,71</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 181,31</t>
         </is>
       </c>
     </row>
@@ -1225,37 +1497,57 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>29,95%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>30,71%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>42,44%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>32,41%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>25,16%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>31,48%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 8,25</t>
+          <t>1,66; 8,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,17</t>
+          <t>1,31; 6,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 11,11</t>
+          <t>3,87; 10,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 8,12</t>
+          <t>2,58; 9,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,23; 56,7</t>
+          <t>0,37; 7,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,61; 49,25</t>
+          <t>2,88; 10,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,37; 72,38</t>
+          <t>9,01; 54,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,75; 54,29</t>
+          <t>8,39; 56,43</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>20,13; 69,65</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>11,63; 56,13</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 49,89</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13,01; 57,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
